--- a/biology/Botanique/Jardin_de_Kyū-Iwasaki-tei/Jardin_de_Kyū-Iwasaki-tei.xlsx
+++ b/biology/Botanique/Jardin_de_Kyū-Iwasaki-tei/Jardin_de_Kyū-Iwasaki-tei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_de_Ky%C5%AB-Iwasaki-tei</t>
+          <t>Jardin_de_Kyū-Iwasaki-tei</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin Kyū-Iwasaki-tei (旧岩崎邸庭園, Kyū-Iwasaki-tei teien?) se trouve dans l'arrondissement de Taitō à Tokyo. C'est l'ancien domaine des Iwasaki, fondateur du groupe Mitsubishi; le nom Kyū-Iwasaki-tei signifie « Ancienne maison Iwasaki ». Le site est pourvu de trois bâtiments : une maison de style occidental conçue par l'architecte britannique Josiah Conder, une maison japonaise et une maison de billard, le tout sur une superficie d'environ 17 000 m2.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_de_Ky%C5%AB-Iwasaki-tei</t>
+          <t>Jardin_de_Kyū-Iwasaki-tei</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'origine, le terrain appartient à la famille Sakakibara du clan Echigo Takada pendant l'époque d'Edo, et abrite leur résidence d'Edo. La propriété passe à la famille du clan Makino Maizuru au début de l'ère Meiji. En 1896, Hisaya Iwasaki, fils d'Iwasaki Yatarō, fondateur du groupe Mitsubishi, acquiert le terrain et — trois ans plus tard après être devenu président de Mitsubishi.[pas clair] Le domaine devient la résidence officielle de la famille Iwasaki.
 Hisaya Iwasaki engage l'architecte britannique, Josiah Conder, qui dessine un bâtiment principal de style occidental a un étage et la maison de billard de style suisse. L'ensemble du projet consiste en plus de 20 bâtiments sur une propriété de 49 500 m2.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_de_Ky%C5%AB-Iwasaki-tei</t>
+          <t>Jardin_de_Kyū-Iwasaki-tei</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Bâtiments</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La résidence de style occidental est un bâtiment à un étage construits en bois qui dispose également d'un sous-sol. La conception est basée sur l'architecture jacobéenne d'Angleterre au XVIIe siècle qui incorpore des motifs islamiques de la Renaissance. Sur l'aile sud de la construction se trouve une véranda avec colonnade. La partie supérieure de la colonnade est du style Ionien de la maison de campagne de Pennsylvanie, parce qu'Hisaya Iwasaki venait d'être diplômé de l'université de Pennsylvanie. 
 La maison du billard est conçue pour rappeler un chalet de montagne suisse, style très rarement rencontré au Japon. Ce bâtiment est entièrement en bois, il dispose de murs en rondins avec des colonnes sculptées et un toit en saillie, conception qui montre des signes du style gothique. Elle est reliée à la résidence principale par un passage souterrain.
